--- a/formats/excel/Formats RSA ANO 13.xlsx
+++ b/formats/excel/Formats RSA ANO 13.xlsx
@@ -130,6 +130,9 @@
     <t>NOSEJ</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>N° Séjour</t>
   </si>
   <si>
@@ -326,9 +329,6 @@
   </si>
   <si>
     <t>NBEVEN</t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
   <si>
     <t>Nb venues de la facture</t>
@@ -414,9 +414,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -441,21 +441,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -471,10 +456,33 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,11 +493,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -508,17 +524,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,17 +547,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,16 +576,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,19 +593,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,25 +725,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,13 +743,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,115 +767,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,35 +802,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,17 +826,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,162 +876,171 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1371,7 +1371,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F41"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1742,7 +1742,7 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -1755,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1763,7 +1763,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -1776,7 +1776,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1784,7 +1784,7 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -1797,7 +1797,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1805,7 +1805,7 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1818,7 +1818,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1839,7 +1839,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1847,7 +1847,7 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1860,7 +1860,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1868,7 +1868,7 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1881,7 +1881,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1889,7 +1889,7 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1910,7 +1910,7 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1923,7 +1923,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1931,7 +1931,7 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1952,7 +1952,7 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1965,7 +1965,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1973,7 +1973,7 @@
         <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1986,7 +1986,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2007,7 +2007,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2015,7 +2015,7 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2028,7 +2028,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2036,7 +2036,7 @@
         <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2049,7 +2049,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2057,7 +2057,7 @@
         <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2070,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2078,7 +2078,7 @@
         <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2091,7 +2091,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2099,7 +2099,7 @@
         <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2112,7 +2112,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2120,7 +2120,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2141,7 +2141,7 @@
         <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2154,7 +2154,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2162,7 +2162,7 @@
         <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2175,7 +2175,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2183,7 +2183,7 @@
         <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2196,7 +2196,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2204,7 +2204,7 @@
         <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2217,7 +2217,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2225,7 +2225,7 @@
         <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2238,7 +2238,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -2259,7 +2259,7 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2267,7 +2267,7 @@
         <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2280,7 +2280,7 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2288,7 +2288,7 @@
         <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2301,7 +2301,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2309,7 +2309,7 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -2322,7 +2322,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2330,7 +2330,7 @@
         <v>106</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -2343,7 +2343,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2351,7 +2351,7 @@
         <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2372,7 +2372,7 @@
         <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2385,7 +2385,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2393,7 +2393,7 @@
         <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2406,7 +2406,7 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>111</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
         <v>105</v>
